--- a/TEST/SOBOL_BIG/2F_48_WELL_2_FACTORS_M9_FILLING/tube_stock/0_tube_stock.xlsx
+++ b/TEST/SOBOL_BIG/2F_48_WELL_2_FACTORS_M9_FILLING/tube_stock/0_tube_stock.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>667.4</v>
+        <v>43.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1332.6</v>
+        <v>1956.8</v>
       </c>
       <c r="D2" t="n">
-        <v>271</v>
+        <v>1822.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1729</v>
+        <v>177.5</v>
       </c>
       <c r="F2" t="n">
         <v>2000</v>
@@ -535,16 +535,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J2" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K2" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L2" t="n">
         <v>1000</v>
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1147.5</v>
+        <v>895.8</v>
       </c>
       <c r="C3" t="n">
-        <v>852.5</v>
+        <v>1104.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1054.1</v>
+        <v>1314.3</v>
       </c>
       <c r="E3" t="n">
-        <v>945.9</v>
+        <v>685.7</v>
       </c>
       <c r="F3" t="n">
         <v>2000</v>
@@ -584,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J3" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L3" t="n">
         <v>1000</v>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1515.9</v>
+        <v>1910.2</v>
       </c>
       <c r="C4" t="n">
-        <v>484.1</v>
+        <v>89.8</v>
       </c>
       <c r="D4" t="n">
-        <v>601.7</v>
+        <v>443.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1398.3</v>
+        <v>1556.5</v>
       </c>
       <c r="F4" t="n">
         <v>2000</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L4" t="n">
         <v>1000</v>
@@ -664,16 +664,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.2</v>
+        <v>1650.6</v>
       </c>
       <c r="C5" t="n">
-        <v>1956.8</v>
+        <v>349.4</v>
       </c>
       <c r="D5" t="n">
-        <v>1822.5</v>
+        <v>1393.3</v>
       </c>
       <c r="E5" t="n">
-        <v>177.5</v>
+        <v>606.7</v>
       </c>
       <c r="F5" t="n">
         <v>2000</v>
@@ -682,16 +682,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J5" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K5" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L5" t="n">
         <v>1000</v>
@@ -713,16 +713,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267.6</v>
+        <v>1080.2</v>
       </c>
       <c r="C6" t="n">
-        <v>1732.4</v>
+        <v>919.8</v>
       </c>
       <c r="D6" t="n">
-        <v>779.9</v>
+        <v>1680.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1220.1</v>
+        <v>319.6</v>
       </c>
       <c r="F6" t="n">
         <v>2000</v>
@@ -731,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L6" t="n">
         <v>1000</v>
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1795.3</v>
+        <v>1979.9</v>
       </c>
       <c r="C7" t="n">
-        <v>204.7</v>
+        <v>20.1</v>
       </c>
       <c r="D7" t="n">
-        <v>1559.1</v>
+        <v>1175.2</v>
       </c>
       <c r="E7" t="n">
-        <v>440.9</v>
+        <v>824.8</v>
       </c>
       <c r="F7" t="n">
         <v>2000</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L7" t="n">
         <v>1000</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.2</v>
+        <v>1844.8</v>
       </c>
       <c r="C8" t="n">
-        <v>584.8</v>
+        <v>155.2</v>
       </c>
       <c r="D8" t="n">
-        <v>97.40000000000001</v>
+        <v>822</v>
       </c>
       <c r="E8" t="n">
-        <v>1902.6</v>
+        <v>1178</v>
       </c>
       <c r="F8" t="n">
         <v>2000</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K8" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L8" t="n">
         <v>1000</v>
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K9" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L9" t="n">
         <v>1000</v>
@@ -927,16 +927,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>880</v>
+        <v>881.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1120</v>
+        <v>1118.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1692</v>
+        <v>1690.4</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>309.6</v>
       </c>
       <c r="L10" t="n">
         <v>1000</v>
